--- a/Hyperparameters.xlsx
+++ b/Hyperparameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4477cd32c34070d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\source\repos\DeepKuhnPoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{50BC9259-55E8-4D3A-B594-C188D14FEECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE05A86-8D07-4CF6-BFAF-FF99DEFC2D08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6567B-2924-48C3-8239-62367569760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20544" yWindow="8280" windowWidth="20832" windowHeight="8376" xr2:uid="{2603BA21-BB1D-4AF8-8CC5-8E26909B26A0}"/>
+    <workbookView xWindow="15780" yWindow="4908" windowWidth="22428" windowHeight="9516" xr2:uid="{2603BA21-BB1D-4AF8-8CC5-8E26909B26A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Seed</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>NumStrategyTrainSteps</t>
+  </si>
+  <si>
+    <t># model layers</t>
   </si>
 </sst>
 </file>
@@ -122,9 +125,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625E1FE9-1FB9-4079-90A3-2B9418347238}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,11 +459,12 @@
     <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -489,13 +493,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -523,117 +530,120 @@
       <c r="I2" s="2">
         <v>1000000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>-5.7239999999999999E-3</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>1.581574074074074E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>2E-3</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-3.0370000000000002E-3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>8.5100694444444449E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-1.072E-3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>44.094180100000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>70</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1.6590000000000001E-3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>55.948942500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1.9250000000000001E-3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>52.941995200000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>50</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7">
         <v>-9.1399999999999999E-4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7">
         <v>44.3469446</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>0.01</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-4.6889999999999996E-3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>33.140858899999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="7">
         <v>40</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>3.39E-4</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>38.186987700000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-8.2399999999999997E-4</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>38.339364699999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -643,19 +653,28 @@
       <c r="D11">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-5.1570000000000001E-3</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>31.615949000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
         <v>0.01</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>40</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-2.2629999999999998E-3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>28.484955100000001</v>
       </c>
     </row>
   </sheetData>

--- a/Hyperparameters.xlsx
+++ b/Hyperparameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\source\repos\DeepKuhnPoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6567B-2924-48C3-8239-62367569760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B6180-1BED-46E4-A3CA-48E548475047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15780" yWindow="4908" windowWidth="22428" windowHeight="9516" xr2:uid="{2603BA21-BB1D-4AF8-8CC5-8E26909B26A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Seed</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t># model layers</t>
+  </si>
+  <si>
+    <t>Fixed encoding</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -93,18 +99,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,15 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625E1FE9-1FB9-4079-90A3-2B9418347238}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +463,7 @@
     <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -501,8 +500,11 @@
       <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -540,7 +542,7 @@
         <v>1.581574074074074E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>2E-3</v>
       </c>
@@ -554,7 +556,7 @@
         <v>8.5100694444444449E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -568,7 +570,7 @@
         <v>44.094180100000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>70</v>
       </c>
@@ -579,7 +581,7 @@
         <v>55.948942500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>24</v>
       </c>
@@ -590,7 +592,7 @@
         <v>52.941995200000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>32</v>
       </c>
@@ -607,7 +609,7 @@
         <v>44.3469446</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>0.01</v>
       </c>
@@ -621,18 +623,18 @@
         <v>33.140858899999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9">
         <v>40</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9">
         <v>3.39E-4</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9">
         <v>38.186987700000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -643,7 +645,7 @@
         <v>38.339364699999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -660,7 +662,7 @@
         <v>31.615949000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <v>0.01</v>
       </c>
@@ -675,6 +677,28 @@
       </c>
       <c r="L12" s="5">
         <v>28.484955100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>-3.3549999999999999E-3</v>
+      </c>
+      <c r="L13">
+        <v>29.079622100000002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>-2.05E-4</v>
+      </c>
+      <c r="L14">
+        <v>28.961998300000001</v>
       </c>
     </row>
   </sheetData>
